--- a/Dokumentation/Anforderungskatalog.xlsx
+++ b/Dokumentation/Anforderungskatalog.xlsx
@@ -190,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,11 +272,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -287,9 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -308,29 +327,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,13 +654,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" style="2" customWidth="1"/>
@@ -628,271 +668,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
